--- a/assets/zixuan.xlsx
+++ b/assets/zixuan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\quant\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFD61E5-718C-43EC-9A06-BDD4B6C38996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC53F5D-F1BC-4BA2-847F-47773FA639BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18264" yWindow="2016" windowWidth="26496" windowHeight="20592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18708" yWindow="3072" windowWidth="26496" windowHeight="20592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zixuan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="228">
   <si>
     <t>group</t>
   </si>
@@ -603,14 +603,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>000981</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>001088</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>02007.HK</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -736,6 +728,18 @@
   </si>
   <si>
     <t>002129</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>00981.HK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>01088.HK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中国神华</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1708,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1995,7 +1999,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
@@ -2006,10 +2010,10 @@
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2017,7 +2021,7 @@
         <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
@@ -2028,7 +2032,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -2039,7 +2043,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
@@ -2559,7 +2563,7 @@
         <v>75</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C80" t="s">
         <v>82</v>
@@ -2570,7 +2574,7 @@
         <v>75</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C81" t="s">
         <v>83</v>
@@ -2581,7 +2585,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C82" t="s">
         <v>84</v>
@@ -2614,7 +2618,7 @@
         <v>75</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C85" t="s">
         <v>87</v>
@@ -2625,7 +2629,7 @@
         <v>75</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C86" t="s">
         <v>88</v>
@@ -2680,7 +2684,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C92" t="s">
         <v>93</v>
@@ -2746,7 +2750,7 @@
         <v>91</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C98" t="s">
         <v>99</v>
@@ -2889,7 +2893,7 @@
         <v>104</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C112" t="s">
         <v>33</v>
@@ -2922,7 +2926,7 @@
         <v>104</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C115" t="s">
         <v>112</v>
@@ -3010,7 +3014,7 @@
         <v>104</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C123" t="s">
         <v>120</v>
@@ -3032,7 +3036,7 @@
         <v>104</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C125" t="s">
         <v>122</v>
@@ -3065,7 +3069,7 @@
         <v>123</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C129" t="s">
         <v>126</v>
@@ -3076,7 +3080,7 @@
         <v>123</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C130" t="s">
         <v>127</v>
@@ -3109,7 +3113,7 @@
         <v>123</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C133" t="s">
         <v>130</v>
@@ -3120,7 +3124,7 @@
         <v>123</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C134" t="s">
         <v>131</v>
@@ -3186,7 +3190,7 @@
         <v>136</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C141" t="s">
         <v>138</v>
@@ -3219,7 +3223,7 @@
         <v>136</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C144" t="s">
         <v>140</v>
@@ -3296,7 +3300,7 @@
         <v>136</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C151" t="s">
         <v>147</v>
@@ -3340,7 +3344,7 @@
         <v>136</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C155" t="s">
         <v>151</v>
@@ -3384,7 +3388,7 @@
         <v>153</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C160" t="s">
         <v>156</v>
@@ -3450,7 +3454,7 @@
         <v>153</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C166" t="s">
         <v>161</v>
@@ -3516,7 +3520,7 @@
         <v>153</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C172" t="s">
         <v>166</v>
@@ -3582,7 +3586,7 @@
         <v>153</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C178" t="s">
         <v>170</v>
@@ -3593,7 +3597,7 @@
         <v>171</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C180" t="s">
         <v>172</v>
@@ -3681,7 +3685,7 @@
         <v>171</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C188" t="s">
         <v>87</v>
@@ -3692,7 +3696,7 @@
         <v>171</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C189" t="s">
         <v>179</v>
@@ -3714,7 +3718,7 @@
         <v>171</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C191" t="s">
         <v>181</v>
@@ -3736,7 +3740,7 @@
         <v>183</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C194" t="s">
         <v>184</v>
@@ -3769,7 +3773,7 @@
         <v>183</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C197" t="s">
         <v>187</v>
@@ -3780,7 +3784,7 @@
         <v>183</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C198" t="s">
         <v>188</v>
@@ -3802,7 +3806,7 @@
         <v>183</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C200" t="s">
         <v>190</v>

--- a/assets/zixuan.xlsx
+++ b/assets/zixuan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\quant\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC53F5D-F1BC-4BA2-847F-47773FA639BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06962164-04A5-4E8A-AC09-6034CEE2632B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18708" yWindow="3072" windowWidth="26496" windowHeight="20592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="5868" windowWidth="26496" windowHeight="17172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zixuan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="380">
   <si>
     <t>group</t>
   </si>
@@ -43,703 +43,1314 @@
     <t>上证指数</t>
   </si>
   <si>
+    <t>深证成指</t>
+  </si>
+  <si>
+    <t>399006.SZ</t>
+  </si>
+  <si>
+    <t>创业板指</t>
+  </si>
+  <si>
+    <t>科创50</t>
+  </si>
+  <si>
+    <t>北证50</t>
+  </si>
+  <si>
+    <t>* 待增加全行业指数</t>
+  </si>
+  <si>
+    <t>01观</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 万丰奥威</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 牧原股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 标普生物科技ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 纳指科技ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 纳斯达克100指数ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 印度基金LOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 苏交科</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 武汉蓝电</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 曙光数创</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 日经ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 黄金ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 内蒙华电</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 长江电力</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 赤峰黄金</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中国神华</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 成都银行</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 药明康德</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 洛阳钼业</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中芯国际</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 碧桂园</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 万科企业</t>
+  </si>
+  <si>
+    <t>02.etf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 华宝油气LOF</t>
+  </si>
+  <si>
+    <t>* 黄金数据：https://china.gold.org/goldhub/data#all</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 有色ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 能源化工ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 豆粕ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 东南亚科技ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 纳斯达克指数ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 纳指ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 美国消费LOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 标普500ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 纳指生物科技ETF</t>
+  </si>
+  <si>
+    <t>XBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 生物技术ETF-SPDR S&amp;P</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 恒生科技30ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 港股创新药ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 港股通央企红利ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中韩半导体ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 德国ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 法国CAC40ETF</t>
+  </si>
+  <si>
+    <t>03.空</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中概互联网ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 恒生科技指数ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 上证50ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 沪深300ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 创业板ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 科创50ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 科创100指数ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中证500ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中证1000ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中证2000ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 游戏ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 光伏ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 证券ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 医药ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 基建50ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 招商银行</t>
+  </si>
+  <si>
+    <t>04.AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中石科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中际旭创</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 天孚通信</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 新易盛</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剑桥科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 罗博特科</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中兴通讯</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 高新发展</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 润建股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 工业富联</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中科曙光</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 浪潮信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 英维克</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 高澜股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 欧陆通</t>
+  </si>
+  <si>
+    <t>05.软件</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 昆仑万维</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 深桑达Ａ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 易华录</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 游戏动漫ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 万兴科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 信雅达</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中文在线</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 科大讯飞</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 软通动力</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 蜂助手</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 掌阅科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 人民网</t>
+  </si>
+  <si>
+    <t>06.医疗</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 迈瑞医疗</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 润达医疗</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 佐力药业</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 泰格医药</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中药ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 昊帆生物</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 博瑞医药</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 常山北明</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 泓博医药</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 成都先导</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 恒瑞医药</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 百济神州-U</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 常山药业</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 翰宇药业</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 爱美客</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 金发拉比</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 三博脑科</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 微创医疗</t>
+  </si>
+  <si>
+    <t>07.机器人</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 机器人ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 苏轴股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 双环传动</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中大力德</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 绿的谐波</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 拓普集团</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 三花智控</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 新时达</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 步科股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 汇川技术</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 机器人</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 丰立智能</t>
+  </si>
+  <si>
+    <t>08.半导体</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 长电科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 通富微电</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 甬矽电子</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北方华创</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中微公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 海光信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙芯中科</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 寒武纪-U</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 景嘉微</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 赛腾股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 万润科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京君正</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 卓胜微</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 香农芯创</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 雅克科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 容大感光</t>
+  </si>
+  <si>
+    <t>09.股息</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 长城科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中粮糖业</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 塔牌集团</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 国投电力</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 紫金矿业</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 西部矿业</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中国石油</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 福寿园</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中国核电</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中国海油</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中远海控</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中国移动</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 冀中能源</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 兖矿能源</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中国船舶</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 交通银行</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 分众传媒</t>
+  </si>
+  <si>
+    <t>10.负50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TCL中环</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 恒生电子</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 道通科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 宏微科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 永悦科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 京投发展</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 招标股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 东方雨虹</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 三六五网</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 泰慕士</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 捷强装备</t>
+  </si>
+  <si>
+    <t>11.消费</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 立讯精密</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 消费ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 韦尔股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 五 粮 液</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 万达电影</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 上海机场</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 海大集团</t>
+  </si>
+  <si>
+    <t>02007.HK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>02202.HK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>02359.HK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>00853.HK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>01448.HK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>00981.HK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>01088.HK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中国神华</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 石英股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 宇通客车</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中远海控</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 恒生红利etf</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 钱江摩托</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 星湖科技</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>000688.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>603993.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>603688.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>601088.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>601919.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>600066.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>600900.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>600863.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>600866.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>601838.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>600988.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>603259.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>603083.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>601138.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>603019.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>603533.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>603000.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>603108.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>688166.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>688235.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>688017.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>601689.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>688160.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>600584.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>688362.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>688981.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>688047.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>688041.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>688012.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>688256.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>603283.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>603897.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>600737.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>600886.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>601899.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>601168.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>601857.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>601985.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>600938.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>600941.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>600188.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>600150.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>601328.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>600570.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>688208.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>688711.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>603879.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>600683.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>603501.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>399001.SZ</t>
-  </si>
-  <si>
-    <t>深证成指</t>
-  </si>
-  <si>
-    <t>399006.SZ</t>
-  </si>
-  <si>
-    <t>创业板指</t>
-  </si>
-  <si>
-    <t>000688.SH</t>
-  </si>
-  <si>
-    <t>科创50</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>899050.BJ</t>
-  </si>
-  <si>
-    <t>北证50</t>
-  </si>
-  <si>
-    <t>* 待增加全行业指数</t>
-  </si>
-  <si>
-    <t>01观</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 万丰奥威</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 牧原股份</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 标普生物科技ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 纳指科技ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 纳斯达克100指数ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 印度基金LOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 苏交科</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 武汉蓝电</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 曙光数创</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 日经ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 黄金ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 内蒙华电</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 长江电力</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 赤峰黄金</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中国神华</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 成都银行</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 药明康德</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 洛阳钼业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>000913.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300394.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>002896.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>002714.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300284.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>002085.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300684.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300308.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300502.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300757.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>000063.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>000628.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>002929.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>000977.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>002837.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300870.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300499.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300418.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>000032.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300212.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300624.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>600571.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300364.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>002230.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>301236.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>301382.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300760.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300181.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300347.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>301393.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>000158.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>301230.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>600276.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>688222.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300255.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300199.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300896.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>002762.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>301293.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>002472.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>002050.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>002527.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300124.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300024.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>301368.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>002156.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>002371.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300474.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>002654.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300223.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300782.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300475.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>002409.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300576.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>002233.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>000937.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>002027.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>002129.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>301136.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>002271.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300295.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>001234.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>300875.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>002475.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>000858.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>002739.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>002311.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>600009.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>830779.BJ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>872808.BJ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>430418.BJ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>159928.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>562500.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>159647.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>159502.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>513120.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>516770.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>513050.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>159915.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>159922.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>159869.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>600036.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>516970.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>515790.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>512880.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>512010.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>510500.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>512100.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>563300.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>588000.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>588030.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>513180.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>510050.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>510300.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>513010.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>513920.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>513310.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>513030.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>513080.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>518880.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>513730.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>513520.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>513500.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>513290.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>159513.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>159509.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>164824.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>162411.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>159980.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>159981.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>159985.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>159501.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>159941.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>162415.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>159545.SZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>603156.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>600919.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>600642.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中粮糖业</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 养元饮品</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙佰集团</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 申能股份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 江苏银行</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 中芯国际</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 碧桂园</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 万科企业</t>
-  </si>
-  <si>
-    <t>02.etf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 华宝油气LOF</t>
-  </si>
-  <si>
-    <t>* 黄金数据：https://china.gold.org/goldhub/data#all</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 有色ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 能源化工ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 豆粕ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 东南亚科技ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 纳斯达克指数ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 纳指ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 美国消费LOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 标普500ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 纳指生物科技ETF</t>
-  </si>
-  <si>
-    <t>XBI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 生物技术ETF-SPDR S&amp;P</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 恒生科技30ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 港股创新药ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 港股通央企红利ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中韩半导体ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 德国ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 法国CAC40ETF</t>
-  </si>
-  <si>
-    <t>03.空</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中概互联网ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 恒生科技指数ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 上证50ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 沪深300ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 创业板ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 科创50ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 科创100指数ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中证500ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中证1000ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中证2000ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 游戏ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 光伏ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 证券ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 医药ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 基建50ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 招商银行</t>
-  </si>
-  <si>
-    <t>04.AI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中石科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中际旭创</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 天孚通信</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 新易盛</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 剑桥科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 罗博特科</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中兴通讯</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 高新发展</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 润建股份</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 工业富联</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中科曙光</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 浪潮信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 英维克</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 高澜股份</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 欧陆通</t>
-  </si>
-  <si>
-    <t>05.软件</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 昆仑万维</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 深桑达Ａ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 易华录</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 游戏动漫ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 万兴科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 信雅达</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中文在线</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 科大讯飞</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 软通动力</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 蜂助手</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 掌阅科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 人民网</t>
-  </si>
-  <si>
-    <t>06.医疗</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 迈瑞医疗</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 润达医疗</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 佐力药业</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 泰格医药</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中药ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 昊帆生物</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 博瑞医药</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 常山北明</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 泓博医药</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 成都先导</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 恒瑞医药</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 百济神州-U</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 常山药业</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 翰宇药业</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 爱美客</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 金发拉比</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 三博脑科</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 微创医疗</t>
-  </si>
-  <si>
-    <t>07.机器人</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 机器人ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 苏轴股份</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 双环传动</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中大力德</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 绿的谐波</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 拓普集团</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 三花智控</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 新时达</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 步科股份</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 汇川技术</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 机器人</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 丰立智能</t>
-  </si>
-  <si>
-    <t>08.半导体</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 长电科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 通富微电</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 甬矽电子</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 北方华创</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中微公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 海光信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 龙芯中科</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 寒武纪-U</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 景嘉微</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 赛腾股份</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 万润科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 北京君正</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 卓胜微</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 香农芯创</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 雅克科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 容大感光</t>
-  </si>
-  <si>
-    <t>09.股息</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 长城科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中粮糖业</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 塔牌集团</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 国投电力</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 紫金矿业</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 西部矿业</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中国石油</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 福寿园</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中国核电</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中国海油</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中远海控</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中国移动</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 冀中能源</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 兖矿能源</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中国船舶</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 交通银行</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 分众传媒</t>
-  </si>
-  <si>
-    <t>10.负50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TCL中环</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 恒生电子</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 道通科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 宏微科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 永悦科技</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 京投发展</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 招标股份</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 东方雨虹</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 三六五网</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 泰慕士</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 捷强装备</t>
-  </si>
-  <si>
-    <t>11.消费</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 立讯精密</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 消费ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 韦尔股份</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 五 粮 液</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 万达电影</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 上海机场</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 海大集团</t>
-  </si>
-  <si>
-    <t>002085</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>002714</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>02007.HK</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>02202.HK</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>02359.HK</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>000063</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>000628</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>002929</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>002837</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>000977</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>000032</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>002230</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>000158</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>002762</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>00853.HK</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>002472</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>002896</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>002050</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>002527</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>002156</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>002371</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>002654</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>002409</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>002233</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>01448.HK</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>000937</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>002027</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>002271</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>001234</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>002475</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>002739</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>002311</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>000858</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>002129</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>00981.HK</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>01088.HK</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中国神华</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>603929.SH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 亚翔集成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>002601.SZ</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -747,7 +1358,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -911,6 +1522,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1342,7 +1975,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1353,6 +1986,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1710,10 +2355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1754,10 +2399,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1765,10 +2410,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1776,10 +2421,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1787,2040 +2432,2205 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1">
-        <v>159502</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1">
-        <v>159509</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1">
-        <v>159513</v>
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1">
-        <v>164824</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1">
-        <v>300284</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1">
-        <v>830779</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1">
-        <v>872808</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>513520</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>518880</v>
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1">
-        <v>600863</v>
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1">
-        <v>600900</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1">
-        <v>600988</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="1">
-        <v>601088</v>
+        <v>13</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="1">
-        <v>601838</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="1">
-        <v>603259</v>
+        <v>13</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="1">
-        <v>603993</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
+        <v>13</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>193</v>
+        <v>322</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C32" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C51" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="1">
-        <v>162411</v>
-      </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C52" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="1">
-        <v>518880</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="1">
-        <v>159980</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="1">
-        <v>159981</v>
-      </c>
-      <c r="C35" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C58" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="1">
-        <v>159985</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="1">
-        <v>164824</v>
-      </c>
-      <c r="C37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="1">
-        <v>513730</v>
-      </c>
-      <c r="C38" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C61" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1">
-        <v>513520</v>
-      </c>
-      <c r="C39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1">
-        <v>159513</v>
-      </c>
-      <c r="C40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="1">
-        <v>159501</v>
-      </c>
-      <c r="C41" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C62" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="1">
-        <v>159941</v>
-      </c>
-      <c r="C42" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C63" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="1">
-        <v>159509</v>
-      </c>
-      <c r="C43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="1">
-        <v>162415</v>
-      </c>
-      <c r="C44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="1">
-        <v>513500</v>
-      </c>
-      <c r="C45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="1">
-        <v>513290</v>
-      </c>
-      <c r="C46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="1">
-        <v>159502</v>
-      </c>
-      <c r="C47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="1">
-        <v>513010</v>
-      </c>
-      <c r="C49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="1">
-        <v>513120</v>
-      </c>
-      <c r="C50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="1">
-        <v>513920</v>
-      </c>
-      <c r="C51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="1">
-        <v>513310</v>
-      </c>
-      <c r="C52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53" s="1">
-        <v>513030</v>
-      </c>
-      <c r="C53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" s="1">
-        <v>513080</v>
-      </c>
-      <c r="C54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="1">
-        <v>513050</v>
-      </c>
-      <c r="C56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="1">
-        <v>513180</v>
-      </c>
-      <c r="C57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="1">
-        <v>510050</v>
-      </c>
-      <c r="C58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1">
-        <v>510300</v>
-      </c>
-      <c r="C59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="1">
-        <v>159915</v>
-      </c>
-      <c r="C60" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="1">
-        <v>588000</v>
-      </c>
-      <c r="C61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="1">
-        <v>588030</v>
-      </c>
-      <c r="C62" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="1">
-        <v>159922</v>
-      </c>
-      <c r="C63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="1">
-        <v>510500</v>
+        <v>35</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" s="1">
-        <v>512100</v>
+        <v>35</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>58</v>
-      </c>
-      <c r="B66" s="1">
-        <v>563300</v>
+        <v>35</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="1">
-        <v>159869</v>
+        <v>35</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" s="1">
-        <v>515790</v>
+        <v>35</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="C68" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>58</v>
-      </c>
-      <c r="B69" s="1">
-        <v>512880</v>
+        <v>35</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>58</v>
-      </c>
-      <c r="B70" s="1">
-        <v>512010</v>
+        <v>35</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>58</v>
-      </c>
-      <c r="B71" s="1">
-        <v>516970</v>
+        <v>35</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="C71" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" s="1">
-        <v>600036</v>
-      </c>
-      <c r="C72" t="s">
-        <v>74</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C73" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" s="1">
-        <v>300684</v>
+        <v>55</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="C74" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" s="1">
-        <v>300308</v>
+        <v>55</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" s="1">
-        <v>300394</v>
+        <v>55</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" s="1">
-        <v>300502</v>
+        <v>55</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>75</v>
-      </c>
-      <c r="B78" s="1">
-        <v>603083</v>
+        <v>55</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>75</v>
-      </c>
-      <c r="B79" s="1">
-        <v>300757</v>
+        <v>55</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>196</v>
+        <v>332</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>197</v>
+        <v>339</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>198</v>
+        <v>340</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>75</v>
-      </c>
-      <c r="B83" s="1">
-        <v>601138</v>
+        <v>55</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>75</v>
-      </c>
-      <c r="B84" s="1">
-        <v>603019</v>
+        <v>55</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>200</v>
+        <v>336</v>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>199</v>
+        <v>337</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>75</v>
-      </c>
-      <c r="B87" s="1">
-        <v>872808</v>
+        <v>55</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>75</v>
-      </c>
-      <c r="B88" s="1">
-        <v>300499</v>
+        <v>55</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="C88" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>75</v>
-      </c>
-      <c r="B89" s="1">
-        <v>300870</v>
+        <v>55</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="C89" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" s="1">
-        <v>300418</v>
+        <v>72</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="C91" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>201</v>
+        <v>260</v>
       </c>
       <c r="C92" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" s="1">
-        <v>300212</v>
+        <v>72</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="C93" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>91</v>
-      </c>
-      <c r="B94" s="1">
-        <v>516770</v>
+        <v>72</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="C94" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>91</v>
-      </c>
-      <c r="B95" s="1">
-        <v>300624</v>
+        <v>72</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="C95" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>91</v>
-      </c>
-      <c r="B96" s="1">
-        <v>600571</v>
+        <v>72</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="C96" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>91</v>
-      </c>
-      <c r="B97" s="1">
-        <v>300364</v>
+        <v>72</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="C97" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="C98" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>91</v>
-      </c>
-      <c r="B99" s="1">
-        <v>301236</v>
+        <v>72</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="C99" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>91</v>
-      </c>
-      <c r="B100" s="1">
-        <v>301382</v>
+        <v>72</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="C100" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>91</v>
-      </c>
-      <c r="B101" s="1">
-        <v>603533</v>
+        <v>72</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="C101" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>91</v>
-      </c>
-      <c r="B102" s="1">
-        <v>603000</v>
+        <v>72</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="C102" t="s">
-        <v>103</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>72</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C103" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" s="1">
-        <v>300760</v>
+        <v>72</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="C104" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105" s="1">
-        <v>603259</v>
+        <v>72</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106" s="1">
-        <v>603108</v>
+        <v>72</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="C106" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>104</v>
-      </c>
-      <c r="B107" s="1">
-        <v>300181</v>
-      </c>
-      <c r="C107" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>104</v>
-      </c>
-      <c r="B108" s="1">
-        <v>300347</v>
+        <v>88</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="C108" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>104</v>
-      </c>
-      <c r="B109" s="1">
-        <v>159502</v>
+        <v>88</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>104</v>
-      </c>
-      <c r="B110" s="1">
-        <v>513120</v>
+        <v>88</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="C110" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>104</v>
-      </c>
-      <c r="B111" s="1">
-        <v>159647</v>
+        <v>88</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="C111" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>195</v>
+        <v>273</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>104</v>
-      </c>
-      <c r="B113" s="1">
-        <v>301393</v>
+        <v>88</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="C113" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>104</v>
-      </c>
-      <c r="B114" s="1">
-        <v>688166</v>
+        <v>88</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="C114" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="C115" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>104</v>
-      </c>
-      <c r="B116" s="1">
-        <v>301230</v>
+        <v>88</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="C116" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>104</v>
-      </c>
-      <c r="B117" s="1">
-        <v>688222</v>
+        <v>88</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="C117" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>104</v>
-      </c>
-      <c r="B118" s="1">
-        <v>600276</v>
+        <v>88</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="C118" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>104</v>
-      </c>
-      <c r="B119" s="1">
-        <v>688235</v>
+        <v>88</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="C119" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>104</v>
-      </c>
-      <c r="B120" s="1">
-        <v>300255</v>
-      </c>
-      <c r="C120" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>104</v>
-      </c>
-      <c r="B121" s="1">
-        <v>300199</v>
+        <v>101</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="C121" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>104</v>
-      </c>
-      <c r="B122" s="1">
-        <v>300896</v>
+        <v>101</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="C122" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="C123" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>101</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C124" t="s">
         <v>104</v>
-      </c>
-      <c r="B124" s="1">
-        <v>301293</v>
-      </c>
-      <c r="C124" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>205</v>
+        <v>281</v>
       </c>
       <c r="C125" t="s">
-        <v>122</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>101</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>123</v>
-      </c>
-      <c r="B127" s="1">
-        <v>562500</v>
+        <v>101</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="C127" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>123</v>
-      </c>
-      <c r="B128" s="1">
-        <v>430418</v>
+        <v>101</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="C128" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C129" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="C130" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>123</v>
-      </c>
-      <c r="B131" s="1">
-        <v>688017</v>
+        <v>101</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="C131" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>123</v>
-      </c>
-      <c r="B132" s="1">
-        <v>601689</v>
+        <v>101</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="C132" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>208</v>
+        <v>284</v>
       </c>
       <c r="C133" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>209</v>
+        <v>286</v>
       </c>
       <c r="C134" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>123</v>
-      </c>
-      <c r="B135" s="1">
-        <v>688160</v>
+        <v>101</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="C135" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>123</v>
-      </c>
-      <c r="B136" s="1">
-        <v>300124</v>
+        <v>101</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="C136" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>123</v>
-      </c>
-      <c r="B137" s="1">
-        <v>300024</v>
+        <v>101</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="C137" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>123</v>
-      </c>
-      <c r="B138" s="1">
-        <v>301368</v>
+        <v>101</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="C138" t="s">
-        <v>135</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>101</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C139" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>136</v>
-      </c>
-      <c r="B140" s="1">
-        <v>600584</v>
+        <v>101</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="C140" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>210</v>
+        <v>291</v>
       </c>
       <c r="C141" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>136</v>
-      </c>
-      <c r="B142" s="1">
-        <v>688362</v>
+        <v>101</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="C142" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>136</v>
-      </c>
-      <c r="B143" s="1">
-        <v>688981</v>
-      </c>
-      <c r="C143" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>211</v>
+        <v>325</v>
       </c>
       <c r="C144" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>136</v>
-      </c>
-      <c r="B145" s="1">
-        <v>688012</v>
+        <v>120</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="C145" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>136</v>
-      </c>
-      <c r="B146" s="1">
-        <v>688041</v>
+        <v>120</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="C146" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>136</v>
-      </c>
-      <c r="B147" s="1">
-        <v>688047</v>
+        <v>120</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="C147" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>136</v>
-      </c>
-      <c r="B148" s="1">
-        <v>688256</v>
+        <v>120</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="C148" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>136</v>
-      </c>
-      <c r="B149" s="1">
-        <v>300474</v>
+        <v>120</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="C149" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>136</v>
-      </c>
-      <c r="B150" s="1">
-        <v>603283</v>
+        <v>120</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="C150" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>212</v>
+        <v>294</v>
       </c>
       <c r="C151" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>136</v>
-      </c>
-      <c r="B152" s="1">
-        <v>300223</v>
+        <v>120</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="C152" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>136</v>
-      </c>
-      <c r="B153" s="1">
-        <v>300782</v>
+        <v>120</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="C153" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>136</v>
-      </c>
-      <c r="B154" s="1">
-        <v>300475</v>
+        <v>120</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C154" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="C155" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>136</v>
-      </c>
-      <c r="B156" s="1">
-        <v>300576</v>
-      </c>
-      <c r="C156" t="s">
-        <v>152</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>133</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C157" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>153</v>
-      </c>
-      <c r="B158" s="1">
-        <v>603897</v>
+        <v>133</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="C158" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>153</v>
-      </c>
-      <c r="B159" s="1">
-        <v>600737</v>
+        <v>133</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="C159" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C160" t="s">
-        <v>156</v>
+        <v>32</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>153</v>
-      </c>
-      <c r="B161" s="1">
-        <v>600886</v>
+        <v>133</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="C161" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>153</v>
-      </c>
-      <c r="B162" s="1">
-        <v>601899</v>
+        <v>133</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="C162" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>153</v>
-      </c>
-      <c r="B163" s="1">
-        <v>601168</v>
+        <v>133</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="C163" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>153</v>
-      </c>
-      <c r="B164" s="1">
-        <v>600863</v>
+        <v>133</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>153</v>
-      </c>
-      <c r="B165" s="1">
-        <v>601857</v>
+        <v>133</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="C165" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="C166" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>153</v>
-      </c>
-      <c r="B167" s="1">
-        <v>603993</v>
+        <v>133</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="C167" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>153</v>
-      </c>
-      <c r="B168" s="1">
-        <v>601985</v>
+        <v>133</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="C168" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>153</v>
-      </c>
-      <c r="B169" s="1">
-        <v>600938</v>
+        <v>133</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="C169" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>153</v>
-      </c>
-      <c r="B170" s="1">
-        <v>601919</v>
+        <v>133</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="C170" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>153</v>
-      </c>
-      <c r="B171" s="1">
-        <v>600941</v>
+        <v>133</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="C171" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>216</v>
+        <v>305</v>
       </c>
       <c r="C172" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>153</v>
-      </c>
-      <c r="B173" s="1">
-        <v>600188</v>
+        <v>133</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="C173" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>153</v>
-      </c>
-      <c r="B174" s="1">
-        <v>601088</v>
-      </c>
-      <c r="C174" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>153</v>
-      </c>
-      <c r="B175" s="1">
-        <v>600900</v>
+        <v>150</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="C175" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>153</v>
-      </c>
-      <c r="B176" s="1">
-        <v>600150</v>
+        <v>150</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="C176" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>150</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C177" t="s">
         <v>153</v>
-      </c>
-      <c r="B177" s="1">
-        <v>601328</v>
-      </c>
-      <c r="C177" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="C178" t="s">
-        <v>170</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>150</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C179" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C180" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>171</v>
-      </c>
-      <c r="B181" s="1">
-        <v>600570</v>
+        <v>150</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="C181" t="s">
-        <v>173</v>
+        <v>25</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>171</v>
-      </c>
-      <c r="B182" s="1">
-        <v>688208</v>
+        <v>150</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="C182" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>171</v>
-      </c>
-      <c r="B183" s="1">
-        <v>300896</v>
+        <v>150</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="C183" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>171</v>
-      </c>
-      <c r="B184" s="1">
-        <v>688711</v>
+        <v>150</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="C184" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>171</v>
-      </c>
-      <c r="B185" s="1">
-        <v>603879</v>
+        <v>150</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="C185" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>171</v>
-      </c>
-      <c r="B186" s="1">
-        <v>600683</v>
+        <v>150</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="C186" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>171</v>
-      </c>
-      <c r="B187" s="1">
-        <v>301136</v>
+        <v>150</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="C187" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="C188" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>218</v>
+        <v>308</v>
       </c>
       <c r="C189" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>171</v>
-      </c>
-      <c r="B190" s="1">
-        <v>300295</v>
+        <v>150</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="C190" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C191" t="s">
-        <v>181</v>
+        <v>28</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>171</v>
-      </c>
-      <c r="B192" s="1">
-        <v>300875</v>
+        <v>150</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="C192" t="s">
-        <v>182</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>150</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C193" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="C194" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>183</v>
-      </c>
-      <c r="B195" s="1">
-        <v>159928</v>
+        <v>150</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="C195" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>183</v>
-      </c>
-      <c r="B196" s="1">
-        <v>603501</v>
-      </c>
-      <c r="C196" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>223</v>
+        <v>310</v>
       </c>
       <c r="C197" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="C198" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>183</v>
-      </c>
-      <c r="B199" s="1">
-        <v>600009</v>
+        <v>168</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="C199" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="C200" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>168</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C201" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>168</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C202" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>168</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C203" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>168</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C204" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>168</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C205" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>168</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C206" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>168</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C207" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>168</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C208" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>168</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C209" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>180</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C211" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>180</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C212" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>180</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C213" t="s">
         <v>183</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C201" t="s">
-        <v>18</v>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>180</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C214" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>180</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C215" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>180</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C216" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>180</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C217" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>180</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C218" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
